--- a/test_ホワイトボード/已完成/test_ホワイトボート_問い合わせ履歴.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボート_問い合わせ履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="602">
   <si>
     <t>URL:</t>
   </si>
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="AH85" sqref="AH85"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3663,9 +3663,7 @@
       <c r="D51" s="88"/>
     </row>
     <row r="53" spans="1:75" ht="14.25">
-      <c r="A53" s="125" t="s">
-        <v>181</v>
-      </c>
+      <c r="A53" s="125"/>
       <c r="B53" s="126" t="s">
         <v>534</v>
       </c>
